--- a/Lab3 - Timeseries powerflow/results/res_load/p_mw.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_load/p_mw.xlsx
@@ -391,16 +391,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.090833333</v>
+        <v>6.35833331</v>
       </c>
       <c r="C2">
-        <v>0.50734</v>
+        <v>50.734</v>
       </c>
       <c r="D2">
-        <v>0.090833333</v>
+        <v>6.35833331</v>
       </c>
       <c r="E2">
-        <v>0.50734</v>
+        <v>35.5138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,16 +408,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.079166667</v>
+        <v>5.54166669</v>
       </c>
       <c r="C3">
-        <v>0.48092</v>
+        <v>48.092</v>
       </c>
       <c r="D3">
-        <v>0.079166667</v>
+        <v>5.54166669</v>
       </c>
       <c r="E3">
-        <v>0.48092</v>
+        <v>33.6644</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,16 +425,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.079166667</v>
+        <v>5.54166669</v>
       </c>
       <c r="C4">
-        <v>0.60067</v>
+        <v>60.06700000000001</v>
       </c>
       <c r="D4">
-        <v>0.079166667</v>
+        <v>5.54166669</v>
       </c>
       <c r="E4">
-        <v>0.60067</v>
+        <v>42.0469</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,16 +442,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.079166667</v>
+        <v>5.54166669</v>
       </c>
       <c r="C5">
-        <v>0.5918</v>
+        <v>59.18</v>
       </c>
       <c r="D5">
-        <v>0.079166667</v>
+        <v>5.54166669</v>
       </c>
       <c r="E5">
-        <v>0.5918</v>
+        <v>41.426</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,16 +459,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2725</v>
+        <v>19.075</v>
       </c>
       <c r="C6">
-        <v>0.59261</v>
+        <v>59.261</v>
       </c>
       <c r="D6">
-        <v>0.2725</v>
+        <v>19.075</v>
       </c>
       <c r="E6">
-        <v>0.59261</v>
+        <v>41.4827</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -476,16 +476,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.416666667</v>
+        <v>29.16666669</v>
       </c>
       <c r="C7">
-        <v>0.30006</v>
+        <v>30.006</v>
       </c>
       <c r="D7">
-        <v>0.416666667</v>
+        <v>29.16666669</v>
       </c>
       <c r="E7">
-        <v>0.30006</v>
+        <v>21.0042</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -493,16 +493,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.458333333</v>
+        <v>32.08333331</v>
       </c>
       <c r="C8">
-        <v>0.33838</v>
+        <v>33.838</v>
       </c>
       <c r="D8">
-        <v>0.458333333</v>
+        <v>32.08333331</v>
       </c>
       <c r="E8">
-        <v>0.33838</v>
+        <v>23.6866</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,16 +510,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.416666667</v>
+        <v>29.16666669</v>
       </c>
       <c r="C9">
-        <v>0.33446</v>
+        <v>33.446</v>
       </c>
       <c r="D9">
-        <v>0.416666667</v>
+        <v>29.16666669</v>
       </c>
       <c r="E9">
-        <v>0.33446</v>
+        <v>23.4122</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,16 +527,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.35</v>
+        <v>24.5</v>
       </c>
       <c r="C10">
-        <v>0.5444</v>
+        <v>54.44</v>
       </c>
       <c r="D10">
-        <v>0.35</v>
+        <v>24.5</v>
       </c>
       <c r="E10">
-        <v>0.5444</v>
+        <v>38.108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -544,16 +544,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.358333333</v>
+        <v>25.08333331</v>
       </c>
       <c r="C11">
-        <v>0.58648</v>
+        <v>58.648</v>
       </c>
       <c r="D11">
-        <v>0.358333333</v>
+        <v>25.08333331</v>
       </c>
       <c r="E11">
-        <v>0.58648</v>
+        <v>41.0536</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,16 +561,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4125</v>
+        <v>28.875</v>
       </c>
       <c r="C12">
-        <v>0.41757</v>
+        <v>41.757</v>
       </c>
       <c r="D12">
-        <v>0.4125</v>
+        <v>28.875</v>
       </c>
       <c r="E12">
-        <v>0.41757</v>
+        <v>29.2299</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,16 +578,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.444166667</v>
+        <v>31.09166669</v>
       </c>
       <c r="C13">
-        <v>0.26659</v>
+        <v>26.659</v>
       </c>
       <c r="D13">
-        <v>0.444166667</v>
+        <v>31.09166669</v>
       </c>
       <c r="E13">
-        <v>0.26659</v>
+        <v>18.6613</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -595,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5758333329999999</v>
+        <v>40.30833330999999</v>
       </c>
       <c r="C14">
-        <v>0.26996</v>
+        <v>26.996</v>
       </c>
       <c r="D14">
-        <v>0.5758333329999999</v>
+        <v>40.30833330999999</v>
       </c>
       <c r="E14">
-        <v>0.26996</v>
+        <v>18.8972</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,16 +612,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4325</v>
+        <v>30.275</v>
       </c>
       <c r="C15">
-        <v>0.25118</v>
+        <v>25.118</v>
       </c>
       <c r="D15">
-        <v>0.4325</v>
+        <v>30.275</v>
       </c>
       <c r="E15">
-        <v>0.25118</v>
+        <v>17.5826</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,16 +629,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.348333333</v>
+        <v>24.38333331</v>
       </c>
       <c r="C16">
-        <v>0.18521</v>
+        <v>18.521</v>
       </c>
       <c r="D16">
-        <v>0.348333333</v>
+        <v>24.38333331</v>
       </c>
       <c r="E16">
-        <v>0.18521</v>
+        <v>12.9647</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,16 +646,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.330833333</v>
+        <v>23.15833331</v>
       </c>
       <c r="C17">
-        <v>0.15541</v>
+        <v>15.541</v>
       </c>
       <c r="D17">
-        <v>0.330833333</v>
+        <v>23.15833331</v>
       </c>
       <c r="E17">
-        <v>0.15541</v>
+        <v>10.8787</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,16 +663,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.340833333</v>
+        <v>23.85833331</v>
       </c>
       <c r="C18">
-        <v>0.51249</v>
+        <v>51.249</v>
       </c>
       <c r="D18">
-        <v>0.340833333</v>
+        <v>23.85833331</v>
       </c>
       <c r="E18">
-        <v>0.51249</v>
+        <v>35.8743</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,16 +680,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.548333333</v>
+        <v>38.38333331</v>
       </c>
       <c r="C19">
-        <v>0.88397</v>
+        <v>88.39700000000001</v>
       </c>
       <c r="D19">
-        <v>0.548333333</v>
+        <v>38.38333331</v>
       </c>
       <c r="E19">
-        <v>0.88397</v>
+        <v>61.8779</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -697,16 +697,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C20">
-        <v>0.86388</v>
+        <v>86.38800000000001</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>0.86388</v>
+        <v>60.4716</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,16 +714,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.835833333</v>
+        <v>58.50833331</v>
       </c>
       <c r="C21">
-        <v>0.8833800000000001</v>
+        <v>88.33800000000001</v>
       </c>
       <c r="D21">
-        <v>0.835833333</v>
+        <v>58.50833331</v>
       </c>
       <c r="E21">
-        <v>0.8833800000000001</v>
+        <v>61.8366</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -731,16 +731,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.563333333</v>
+        <v>39.43333331</v>
       </c>
       <c r="C22">
-        <v>0.9518799999999999</v>
+        <v>95.18799999999999</v>
       </c>
       <c r="D22">
-        <v>0.563333333</v>
+        <v>39.43333331</v>
       </c>
       <c r="E22">
-        <v>0.9518799999999999</v>
+        <v>66.63159999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -748,16 +748,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>0.9473200000000001</v>
+        <v>94.732</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9473200000000001</v>
+        <v>66.3124</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -765,16 +765,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.25</v>
+        <v>17.5</v>
       </c>
       <c r="C24">
-        <v>0.97484</v>
+        <v>97.48400000000001</v>
       </c>
       <c r="D24">
-        <v>0.25</v>
+        <v>17.5</v>
       </c>
       <c r="E24">
-        <v>0.97484</v>
+        <v>68.2388</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -782,16 +782,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.17</v>
+        <v>11.9</v>
       </c>
       <c r="C25">
-        <v>0.9399999999999999</v>
+        <v>94</v>
       </c>
       <c r="D25">
-        <v>0.17</v>
+        <v>11.9</v>
       </c>
       <c r="E25">
-        <v>0.9399999999999999</v>
+        <v>65.8</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3 - Timeseries powerflow/results/res_load/p_mw.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_load/p_mw.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,410 +388,104 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>6.35833331</v>
+        <v>46.2</v>
       </c>
       <c r="C2">
-        <v>50.734</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>6.35833331</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>35.5138</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5.54166669</v>
+        <v>66.5</v>
       </c>
       <c r="C3">
-        <v>48.092</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>5.54166669</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>33.6644</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5.54166669</v>
+        <v>57.4</v>
       </c>
       <c r="C4">
-        <v>60.06700000000001</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>5.54166669</v>
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>42.0469</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5.54166669</v>
+        <v>65.8</v>
       </c>
       <c r="C5">
-        <v>59.18</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>5.54166669</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>41.426</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>19.075</v>
+        <v>69.3</v>
       </c>
       <c r="C6">
-        <v>59.261</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>19.075</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>41.4827</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>29.16666669</v>
+        <v>47.6</v>
       </c>
       <c r="C7">
-        <v>30.006</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>29.16666669</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>21.0042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>32.08333331</v>
-      </c>
-      <c r="C8">
-        <v>33.838</v>
-      </c>
-      <c r="D8">
-        <v>32.08333331</v>
-      </c>
-      <c r="E8">
-        <v>23.6866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>29.16666669</v>
-      </c>
-      <c r="C9">
-        <v>33.446</v>
-      </c>
-      <c r="D9">
-        <v>29.16666669</v>
-      </c>
-      <c r="E9">
-        <v>23.4122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>24.5</v>
-      </c>
-      <c r="C10">
-        <v>54.44</v>
-      </c>
-      <c r="D10">
-        <v>24.5</v>
-      </c>
-      <c r="E10">
-        <v>38.108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>25.08333331</v>
-      </c>
-      <c r="C11">
-        <v>58.648</v>
-      </c>
-      <c r="D11">
-        <v>25.08333331</v>
-      </c>
-      <c r="E11">
-        <v>41.0536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>28.875</v>
-      </c>
-      <c r="C12">
-        <v>41.757</v>
-      </c>
-      <c r="D12">
-        <v>28.875</v>
-      </c>
-      <c r="E12">
-        <v>29.2299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>31.09166669</v>
-      </c>
-      <c r="C13">
-        <v>26.659</v>
-      </c>
-      <c r="D13">
-        <v>31.09166669</v>
-      </c>
-      <c r="E13">
-        <v>18.6613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>40.30833330999999</v>
-      </c>
-      <c r="C14">
-        <v>26.996</v>
-      </c>
-      <c r="D14">
-        <v>40.30833330999999</v>
-      </c>
-      <c r="E14">
-        <v>18.8972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>30.275</v>
-      </c>
-      <c r="C15">
-        <v>25.118</v>
-      </c>
-      <c r="D15">
-        <v>30.275</v>
-      </c>
-      <c r="E15">
-        <v>17.5826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>24.38333331</v>
-      </c>
-      <c r="C16">
-        <v>18.521</v>
-      </c>
-      <c r="D16">
-        <v>24.38333331</v>
-      </c>
-      <c r="E16">
-        <v>12.9647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>23.15833331</v>
-      </c>
-      <c r="C17">
-        <v>15.541</v>
-      </c>
-      <c r="D17">
-        <v>23.15833331</v>
-      </c>
-      <c r="E17">
-        <v>10.8787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>23.85833331</v>
-      </c>
-      <c r="C18">
-        <v>51.249</v>
-      </c>
-      <c r="D18">
-        <v>23.85833331</v>
-      </c>
-      <c r="E18">
-        <v>35.8743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>38.38333331</v>
-      </c>
-      <c r="C19">
-        <v>88.39700000000001</v>
-      </c>
-      <c r="D19">
-        <v>38.38333331</v>
-      </c>
-      <c r="E19">
-        <v>61.8779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <v>86.38800000000001</v>
-      </c>
-      <c r="D20">
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <v>60.4716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>58.50833331</v>
-      </c>
-      <c r="C21">
-        <v>88.33800000000001</v>
-      </c>
-      <c r="D21">
-        <v>58.50833331</v>
-      </c>
-      <c r="E21">
-        <v>61.8366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>39.43333331</v>
-      </c>
-      <c r="C22">
-        <v>95.18799999999999</v>
-      </c>
-      <c r="D22">
-        <v>39.43333331</v>
-      </c>
-      <c r="E22">
-        <v>66.63159999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>94.732</v>
-      </c>
-      <c r="D23">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>66.3124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>17.5</v>
-      </c>
-      <c r="C24">
-        <v>97.48400000000001</v>
-      </c>
-      <c r="D24">
-        <v>17.5</v>
-      </c>
-      <c r="E24">
-        <v>68.2388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>11.9</v>
-      </c>
-      <c r="C25">
-        <v>94</v>
-      </c>
-      <c r="D25">
-        <v>11.9</v>
-      </c>
-      <c r="E25">
-        <v>65.8</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3 - Timeseries powerflow/results/res_load/p_mw.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_load/p_mw.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,104 +388,410 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46.2</v>
+        <v>6.35833331</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50.734</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>6.35833331</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>35.5138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66.5</v>
+        <v>5.54166669</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>48.092</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>5.54166669</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>33.6644</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57.4</v>
+        <v>5.54166669</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>60.06700000000001</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>5.54166669</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>42.0469</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65.8</v>
+        <v>5.54166669</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>59.18</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>5.54166669</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>41.426</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69.3</v>
+        <v>19.075</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>59.261</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>19.075</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>41.4827</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>29.16666669</v>
+      </c>
+      <c r="C7">
+        <v>30.006</v>
+      </c>
+      <c r="D7">
+        <v>29.16666669</v>
+      </c>
+      <c r="E7">
+        <v>21.0042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>47.6</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
+      <c r="B8">
+        <v>32.08333331</v>
+      </c>
+      <c r="C8">
+        <v>33.838</v>
+      </c>
+      <c r="D8">
+        <v>32.08333331</v>
+      </c>
+      <c r="E8">
+        <v>23.6866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>29.16666669</v>
+      </c>
+      <c r="C9">
+        <v>33.446</v>
+      </c>
+      <c r="D9">
+        <v>29.16666669</v>
+      </c>
+      <c r="E9">
+        <v>23.4122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>24.5</v>
+      </c>
+      <c r="C10">
+        <v>54.44</v>
+      </c>
+      <c r="D10">
+        <v>24.5</v>
+      </c>
+      <c r="E10">
+        <v>38.108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>25.08333331</v>
+      </c>
+      <c r="C11">
+        <v>58.648</v>
+      </c>
+      <c r="D11">
+        <v>25.08333331</v>
+      </c>
+      <c r="E11">
+        <v>41.0536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>28.875</v>
+      </c>
+      <c r="C12">
+        <v>41.757</v>
+      </c>
+      <c r="D12">
+        <v>28.875</v>
+      </c>
+      <c r="E12">
+        <v>29.2299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>31.09166669</v>
+      </c>
+      <c r="C13">
+        <v>26.659</v>
+      </c>
+      <c r="D13">
+        <v>31.09166669</v>
+      </c>
+      <c r="E13">
+        <v>18.6613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>40.30833330999999</v>
+      </c>
+      <c r="C14">
+        <v>26.996</v>
+      </c>
+      <c r="D14">
+        <v>40.30833330999999</v>
+      </c>
+      <c r="E14">
+        <v>18.8972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>30.275</v>
+      </c>
+      <c r="C15">
+        <v>25.118</v>
+      </c>
+      <c r="D15">
+        <v>30.275</v>
+      </c>
+      <c r="E15">
+        <v>17.5826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>24.38333331</v>
+      </c>
+      <c r="C16">
+        <v>18.521</v>
+      </c>
+      <c r="D16">
+        <v>24.38333331</v>
+      </c>
+      <c r="E16">
+        <v>12.9647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>23.15833331</v>
+      </c>
+      <c r="C17">
+        <v>15.541</v>
+      </c>
+      <c r="D17">
+        <v>23.15833331</v>
+      </c>
+      <c r="E17">
+        <v>10.8787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>23.85833331</v>
+      </c>
+      <c r="C18">
+        <v>51.249</v>
+      </c>
+      <c r="D18">
+        <v>23.85833331</v>
+      </c>
+      <c r="E18">
+        <v>35.8743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>38.38333331</v>
+      </c>
+      <c r="C19">
+        <v>88.39700000000001</v>
+      </c>
+      <c r="D19">
+        <v>38.38333331</v>
+      </c>
+      <c r="E19">
+        <v>61.8779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>70</v>
       </c>
-      <c r="E7">
+      <c r="C20">
+        <v>86.38800000000001</v>
+      </c>
+      <c r="D20">
         <v>70</v>
+      </c>
+      <c r="E20">
+        <v>60.4716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>58.50833331</v>
+      </c>
+      <c r="C21">
+        <v>88.33800000000001</v>
+      </c>
+      <c r="D21">
+        <v>58.50833331</v>
+      </c>
+      <c r="E21">
+        <v>61.8366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>39.43333331</v>
+      </c>
+      <c r="C22">
+        <v>95.18799999999999</v>
+      </c>
+      <c r="D22">
+        <v>39.43333331</v>
+      </c>
+      <c r="E22">
+        <v>66.63159999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>94.732</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>66.3124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>17.5</v>
+      </c>
+      <c r="C24">
+        <v>97.48400000000001</v>
+      </c>
+      <c r="D24">
+        <v>17.5</v>
+      </c>
+      <c r="E24">
+        <v>68.2388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>11.9</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+      <c r="D25">
+        <v>11.9</v>
+      </c>
+      <c r="E25">
+        <v>65.8</v>
       </c>
     </row>
   </sheetData>
